--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFCE48-D707-4FBA-9A20-34FA9690531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0709246-ED29-42A2-8D1B-98128B3497D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7C5F6FE-2EB0-43FE-9575-B7F364D75BC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{389AC7C3-BFCB-43F1-A836-D5DFA6FB160E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D5D4B0-B47B-46EC-B45F-764366E09C8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB48ED-052B-42AD-AF81-DE2DB3911183}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f11_95RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0709246-ED29-42A2-8D1B-98128B3497D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54F68BD-BF52-485D-AF48-03468CD0EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{389AC7C3-BFCB-43F1-A836-D5DFA6FB160E}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F744D455-A08C-4243-9C9C-2DBFFCE484C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB48ED-052B-42AD-AF81-DE2DB3911183}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2A55D4-D644-49FA-BD1B-D23EB4CD4EB6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/F/AngVel/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\F\AngVel\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54F68BD-BF52-485D-AF48-03468CD0EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E558593-5EB7-4F4A-8E97-B517976C86F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F744D455-A08C-4243-9C9C-2DBFFCE484C7}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{6BDA9988-852E-4EB7-875C-524DB08FBAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2A55D4-D644-49FA-BD1B-D23EB4CD4EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB72A51-677A-42C3-ACD7-C29E478BE31C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
